--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EABC13-1E22-1D4E-A1F9-D758B78C952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB801C06-F72B-F245-A1BC-632D2872AEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement" sheetId="1" r:id="rId1"/>
@@ -3350,8 +3350,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
+      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -7584,7 +7584,7 @@
         <v>476</v>
       </c>
       <c r="D184" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>686</v>
@@ -7607,7 +7607,7 @@
         <v>539</v>
       </c>
       <c r="D185" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>687</v>
@@ -7630,7 +7630,7 @@
         <v>477</v>
       </c>
       <c r="D186" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>688</v>
@@ -7653,7 +7653,7 @@
         <v>684</v>
       </c>
       <c r="D187" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>689</v>
@@ -7676,7 +7676,7 @@
         <v>541</v>
       </c>
       <c r="D188" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>690</v>
@@ -7699,7 +7699,7 @@
         <v>562</v>
       </c>
       <c r="D189" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>691</v>
@@ -7722,7 +7722,7 @@
         <v>530</v>
       </c>
       <c r="D190" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>692</v>
@@ -7745,7 +7745,7 @@
         <v>478</v>
       </c>
       <c r="D191" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>693</v>
@@ -7768,7 +7768,7 @@
         <v>479</v>
       </c>
       <c r="D192" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>694</v>
@@ -7791,7 +7791,7 @@
         <v>480</v>
       </c>
       <c r="D193" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>695</v>
@@ -7814,7 +7814,7 @@
         <v>561</v>
       </c>
       <c r="D194" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>696</v>
@@ -7837,7 +7837,7 @@
         <v>481</v>
       </c>
       <c r="D195" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>697</v>
@@ -7860,7 +7860,7 @@
         <v>482</v>
       </c>
       <c r="D196" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>698</v>
@@ -7883,7 +7883,7 @@
         <v>540</v>
       </c>
       <c r="D197" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>699</v>
@@ -7906,7 +7906,7 @@
         <v>523</v>
       </c>
       <c r="D198" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>700</v>
@@ -7929,7 +7929,7 @@
         <v>538</v>
       </c>
       <c r="D199" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>702</v>
@@ -7952,7 +7952,7 @@
         <v>484</v>
       </c>
       <c r="D200" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>701</v>
@@ -9470,7 +9470,7 @@
         <v>536</v>
       </c>
       <c r="D266" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>778</v>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE1BE5-C9D7-EC40-BD36-A6BF44D44130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0232F-EB48-784E-9A80-0F7115F37A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3350,8 +3350,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0232F-EB48-784E-9A80-0F7115F37A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85C9040-AEB6-CE41-945D-6590DC4AE776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F31BE7-4877-4443-ACE7-A34255685FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF62D1B-49A6-5540-BF3B-A6F59B1431DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3383,8 +3383,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF62D1B-49A6-5540-BF3B-A6F59B1431DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3375A7-2B8C-0840-B4E4-833261E1EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,9 +1661,6 @@
     <t>绝望</t>
   </si>
   <si>
-    <t>上吧，Rocinate！</t>
-  </si>
-  <si>
     <t>罪</t>
   </si>
   <si>
@@ -1808,9 +1805,6 @@
     <t>上岸</t>
   </si>
   <si>
-    <t>wc，冰！</t>
-  </si>
-  <si>
     <t>都市笑传吃吃冰</t>
   </si>
   <si>
@@ -1946,9 +1940,6 @@
     <t>不会成为大罪</t>
   </si>
   <si>
-    <t>诶呀，大意失荆州啊</t>
-  </si>
-  <si>
     <t>臭棋篓子王</t>
   </si>
   <si>
@@ -2961,6 +2952,15 @@
   </si>
   <si>
     <t>(AEVT?[50526])&amp;(AEVT?[50564])&amp;(AEVT?[90277])&amp;(AEVT?[50736])&amp;(AEVT?[50812])&amp;(AEVT?[50547])&amp;(AEVT?[11299])&amp;(AEVT?[21315])</t>
+  </si>
+  <si>
+    <t>诶呀 大意失荆州啊</t>
+  </si>
+  <si>
+    <t>冰！</t>
+  </si>
+  <si>
+    <t>上吧 Rocinate！</t>
   </si>
 </sst>
 </file>
@@ -3383,8 +3383,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -3459,7 +3459,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -3505,7 +3505,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -3551,16 +3551,16 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>322</v>
@@ -3781,7 +3781,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -3830,13 +3830,13 @@
         <v>332</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -3850,16 +3850,16 @@
         <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -3896,16 +3896,16 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -3919,16 +3919,16 @@
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -3965,16 +3965,16 @@
         <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>45</v>
@@ -4218,7 +4218,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>343</v>
@@ -4402,7 +4402,7 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="5">
@@ -4587,7 +4587,7 @@
         <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -4607,16 +4607,16 @@
         <v>151</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>350</v>
@@ -4722,10 +4722,10 @@
         <v>156</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>111</v>
@@ -5067,16 +5067,16 @@
         <v>171</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>173</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>319</v>
@@ -5320,10 +5320,10 @@
         <v>182</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>173</v>
@@ -5593,10 +5593,10 @@
         <v>194</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5616,10 +5616,10 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>434</v>
+        <v>817</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
@@ -5685,10 +5685,10 @@
         <v>198</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -5938,22 +5938,22 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="39.5" customHeight="1">
@@ -6329,7 +6329,7 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>385</v>
+        <v>818</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>274</v>
@@ -6398,7 +6398,7 @@
         <v>229</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>300</v>
@@ -6421,7 +6421,7 @@
         <v>230</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>299</v>
@@ -6562,13 +6562,13 @@
         <v>354</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
@@ -6585,13 +6585,13 @@
         <v>355</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F139" s="5">
         <v>1</v>
@@ -6608,13 +6608,13 @@
         <v>356</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F140" s="5">
         <v>1</v>
@@ -6631,13 +6631,13 @@
         <v>357</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D141" s="5">
         <v>1</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
@@ -6654,13 +6654,13 @@
         <v>358</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D142" s="5">
         <v>2</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -6677,13 +6677,13 @@
         <v>359</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F143" s="5">
         <v>1</v>
@@ -6700,13 +6700,13 @@
         <v>360</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D144" s="5">
         <v>2</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F144" s="5">
         <v>1</v>
@@ -6720,16 +6720,16 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D145" s="5">
         <v>3</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F145" s="5">
         <v>1</v>
@@ -6743,16 +6743,16 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D146" s="5">
         <v>3</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -6766,16 +6766,16 @@
         <v>245</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F147" s="5">
         <v>1</v>
@@ -6789,16 +6789,16 @@
         <v>246</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F148" s="5">
         <v>1</v>
@@ -6812,16 +6812,16 @@
         <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
@@ -6838,13 +6838,13 @@
         <v>361</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
@@ -6861,13 +6861,13 @@
         <v>362</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D151" s="5">
         <v>3</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
@@ -6884,13 +6884,13 @@
         <v>363</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D152" s="5">
         <v>3</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
@@ -6904,7 +6904,7 @@
         <v>251</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>364</v>
@@ -6913,7 +6913,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F153" s="5">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
@@ -6953,13 +6953,13 @@
         <v>367</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D155" s="5">
         <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
@@ -7005,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
@@ -7019,16 +7019,16 @@
         <v>256</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="D158" s="5">
         <v>1</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
@@ -7042,16 +7042,16 @@
         <v>257</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
@@ -7065,22 +7065,22 @@
         <v>258</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D160" s="5">
         <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7091,19 +7091,19 @@
         <v>352</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7111,22 +7111,22 @@
         <v>260</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D162" s="5">
         <v>2</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7134,16 +7134,16 @@
         <v>261</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
@@ -7157,16 +7157,16 @@
         <v>262</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D164" s="5">
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -7180,16 +7180,16 @@
         <v>263</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="D165" s="5">
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
@@ -7203,22 +7203,22 @@
         <v>264</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="D166" s="5">
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7226,22 +7226,22 @@
         <v>265</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="D167" s="5">
         <v>1</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7249,16 +7249,16 @@
         <v>266</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D168" s="5">
         <v>2</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -7272,16 +7272,16 @@
         <v>267</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D169" s="5">
         <v>1</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F169" s="5">
         <v>0</v>
@@ -7295,16 +7295,16 @@
         <v>268</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D170" s="5">
         <v>2</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -7318,16 +7318,16 @@
         <v>269</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D171" s="5">
         <v>1</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -7341,22 +7341,22 @@
         <v>270</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D172" s="5">
         <v>3</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7364,22 +7364,22 @@
         <v>271</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D173" s="5">
         <v>2</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7387,22 +7387,22 @@
         <v>272</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D174" s="5">
         <v>3</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7410,16 +7410,16 @@
         <v>273</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="D175" s="5">
         <v>3</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
@@ -7433,16 +7433,16 @@
         <v>274</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="D176" s="5">
         <v>1</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -7456,22 +7456,22 @@
         <v>275</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="D177" s="5">
         <v>2</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7479,22 +7479,22 @@
         <v>276</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D178" s="5">
         <v>3</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7502,22 +7502,22 @@
         <v>277</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D179" s="5">
         <v>3</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7525,16 +7525,16 @@
         <v>278</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -7548,22 +7548,22 @@
         <v>279</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D181" s="5">
         <v>0</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7571,22 +7571,22 @@
         <v>280</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D182" s="5">
         <v>3</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7594,16 +7594,16 @@
         <v>281</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
@@ -7617,22 +7617,22 @@
         <v>282</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D184" s="5">
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F184" s="5">
         <v>1</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23">
@@ -7640,22 +7640,22 @@
         <v>283</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D185" s="5">
         <v>4</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F185" s="5">
         <v>1</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23">
@@ -7663,22 +7663,22 @@
         <v>284</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D186" s="5">
         <v>4</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F186" s="5">
         <v>1</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23">
@@ -7686,22 +7686,22 @@
         <v>285</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D187" s="5">
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F187" s="5">
         <v>1</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23">
@@ -7709,22 +7709,22 @@
         <v>286</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D188" s="5">
         <v>4</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F188" s="5">
         <v>1</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23">
@@ -7732,22 +7732,22 @@
         <v>287</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D189" s="5">
         <v>4</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F189" s="5">
         <v>1</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23">
@@ -7755,22 +7755,22 @@
         <v>288</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D190" s="5">
         <v>4</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23">
@@ -7778,22 +7778,22 @@
         <v>289</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D191" s="5">
         <v>4</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23">
@@ -7801,22 +7801,22 @@
         <v>290</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D192" s="5">
         <v>4</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F192" s="5">
         <v>1</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="23">
@@ -7824,22 +7824,22 @@
         <v>291</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D193" s="5">
         <v>4</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F193" s="5">
         <v>1</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="23">
@@ -7847,22 +7847,22 @@
         <v>292</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D194" s="5">
         <v>4</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F194" s="5">
         <v>1</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="23">
@@ -7870,22 +7870,22 @@
         <v>293</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D195" s="5">
         <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="23">
@@ -7893,22 +7893,22 @@
         <v>294</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D196" s="5">
         <v>4</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F196" s="5">
         <v>1</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="23">
@@ -7916,22 +7916,22 @@
         <v>295</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D197" s="5">
         <v>4</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F197" s="5">
         <v>1</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="23">
@@ -7939,22 +7939,22 @@
         <v>296</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D198" s="5">
         <v>4</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F198" s="5">
         <v>1</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="23">
@@ -7962,22 +7962,22 @@
         <v>297</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D199" s="5">
         <v>4</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="23">
@@ -7985,22 +7985,22 @@
         <v>298</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D200" s="5">
         <v>4</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F200" s="5">
         <v>1</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8008,22 +8008,22 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>480</v>
+        <v>816</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D201" s="5">
         <v>2</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8031,22 +8031,22 @@
         <v>300</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8054,22 +8054,22 @@
         <v>301</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D203" s="5">
         <v>2</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8077,22 +8077,22 @@
         <v>302</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D204" s="5">
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8100,22 +8100,22 @@
         <v>303</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D205" s="5">
         <v>3</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8123,22 +8123,22 @@
         <v>304</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D206" s="5">
         <v>3</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8146,22 +8146,22 @@
         <v>305</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D207" s="5">
         <v>3</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8169,22 +8169,22 @@
         <v>306</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D208" s="5">
         <v>3</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8192,22 +8192,22 @@
         <v>307</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D209" s="5">
         <v>3</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8215,22 +8215,22 @@
         <v>308</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D210" s="5">
         <v>3</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8238,22 +8238,22 @@
         <v>309</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D211" s="5">
         <v>3</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8261,22 +8261,22 @@
         <v>310</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D212" s="5">
         <v>3</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8284,22 +8284,22 @@
         <v>311</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D213" s="5">
         <v>3</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8307,22 +8307,22 @@
         <v>312</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D214" s="5">
         <v>1</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F214" s="5">
         <v>1</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8330,22 +8330,22 @@
         <v>313</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D215" s="5">
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F215" s="5">
         <v>1</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8353,22 +8353,22 @@
         <v>314</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D216" s="5">
         <v>1</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F216" s="11">
         <v>0</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8376,22 +8376,22 @@
         <v>315</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D217" s="5">
         <v>1</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F217" s="11">
         <v>0</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8399,22 +8399,22 @@
         <v>316</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D218" s="5">
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F218" s="11">
         <v>0</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="23">
@@ -8422,22 +8422,22 @@
         <v>317</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F219" s="5">
         <v>0</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="23">
@@ -8445,22 +8445,22 @@
         <v>318</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F220" s="5">
         <v>0</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="23">
@@ -8468,22 +8468,22 @@
         <v>319</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="23">
@@ -8491,22 +8491,22 @@
         <v>320</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="23">
@@ -8514,22 +8514,22 @@
         <v>321</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="23">
@@ -8537,22 +8537,22 @@
         <v>322</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="23">
@@ -8560,22 +8560,22 @@
         <v>323</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="23">
@@ -8583,22 +8583,22 @@
         <v>324</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="23">
@@ -8606,22 +8606,22 @@
         <v>325</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="23">
@@ -8629,22 +8629,22 @@
         <v>326</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="23">
@@ -8652,22 +8652,22 @@
         <v>327</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F229" s="5">
         <v>0</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="23">
@@ -8675,22 +8675,22 @@
         <v>328</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F230" s="5">
         <v>0</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="23">
@@ -8698,22 +8698,22 @@
         <v>329</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="23">
@@ -8721,22 +8721,22 @@
         <v>330</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="23">
@@ -8744,22 +8744,22 @@
         <v>331</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F233" s="5">
         <v>0</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="23">
@@ -8767,22 +8767,22 @@
         <v>332</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="23">
@@ -8790,22 +8790,22 @@
         <v>333</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="23">
@@ -8813,22 +8813,22 @@
         <v>334</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="23">
@@ -8836,22 +8836,22 @@
         <v>335</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="23">
@@ -8859,22 +8859,22 @@
         <v>336</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F238" s="5">
         <v>0</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="23">
@@ -8882,22 +8882,22 @@
         <v>337</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="23">
@@ -8905,22 +8905,22 @@
         <v>338</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F240" s="5">
         <v>0</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="23">
@@ -8928,22 +8928,22 @@
         <v>339</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="23">
@@ -8951,22 +8951,22 @@
         <v>340</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="23">
@@ -8974,22 +8974,22 @@
         <v>341</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="23">
@@ -8997,22 +8997,22 @@
         <v>342</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F244" s="5">
         <v>0</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="23">
@@ -9020,22 +9020,22 @@
         <v>343</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="23">
@@ -9043,22 +9043,22 @@
         <v>344</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F246" s="5">
         <v>0</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="23">
@@ -9066,22 +9066,22 @@
         <v>345</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F247" s="5">
         <v>0</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23">
@@ -9089,22 +9089,22 @@
         <v>346</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F248" s="5">
         <v>0</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23">
@@ -9112,22 +9112,22 @@
         <v>347</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F249" s="5">
         <v>0</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23">
@@ -9135,22 +9135,22 @@
         <v>348</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F250" s="5">
         <v>0</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23">
@@ -9158,22 +9158,22 @@
         <v>349</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23">
@@ -9181,22 +9181,22 @@
         <v>350</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F252" s="5">
         <v>0</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23">
@@ -9204,22 +9204,22 @@
         <v>351</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23">
@@ -9227,22 +9227,22 @@
         <v>352</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F254" s="5">
         <v>0</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9250,22 +9250,22 @@
         <v>353</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D255" s="5">
         <v>2</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9273,22 +9273,22 @@
         <v>354</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D256" s="5">
         <v>1</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -9296,22 +9296,22 @@
         <v>355</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D257" s="5">
         <v>3</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F257" s="5">
         <v>1</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9319,22 +9319,22 @@
         <v>356</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D258" s="5">
         <v>3</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9342,22 +9342,22 @@
         <v>357</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D259" s="5">
         <v>3</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F259" s="5">
         <v>0</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9365,22 +9365,22 @@
         <v>358</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D260" s="5">
         <v>3</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9388,22 +9388,22 @@
         <v>359</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D261" s="5">
         <v>3</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F261" s="5">
         <v>1</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -9411,16 +9411,16 @@
         <v>360</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D262" s="5">
         <v>1</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -9434,22 +9434,22 @@
         <v>361</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D263" s="5">
         <v>3</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F263" s="5">
         <v>1</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -9457,22 +9457,22 @@
         <v>362</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D264" s="5">
         <v>2</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F264" s="5">
         <v>1</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -9480,22 +9480,22 @@
         <v>363</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D265" s="5">
         <v>3</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F265" s="5">
         <v>1</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -9503,22 +9503,22 @@
         <v>364</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D266" s="5">
         <v>4</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F266" s="5">
         <v>1</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -9526,22 +9526,22 @@
         <v>365</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D267" s="5">
         <v>1</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -9549,22 +9549,22 @@
         <v>366</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -9572,22 +9572,22 @@
         <v>367</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="280" spans="5:5">

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D260136C-645E-9A4C-BBD6-86AFFBA64B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4083AC3D-E483-AB44-867A-60AC957D899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3382,9 +3382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4083AC3D-E483-AB44-867A-60AC957D899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046FF27-D4AF-DF4B-B7D5-F707E78FB17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2810,12 +2810,6 @@
     <t>sb没有</t>
   </si>
   <si>
-    <t>(INT&lt;0)&amp;(CHR&gt;10)</t>
-  </si>
-  <si>
-    <t>(INT&lt;0)&amp;(CHR&lt;0)</t>
-  </si>
-  <si>
     <t>云层上的视线</t>
   </si>
   <si>
@@ -2961,6 +2955,12 @@
   </si>
   <si>
     <t>上吧 Rocinate！</t>
+  </si>
+  <si>
+    <t>(LINT&lt;0)&amp;(HCHR&gt;10)</t>
+  </si>
+  <si>
+    <t>(LINT&lt;0)&amp;(LCHR&lt;0)</t>
   </si>
 </sst>
 </file>
@@ -3382,9 +3382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -5616,7 +5616,7 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>433</v>
@@ -5938,16 +5938,16 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>274</v>
@@ -6720,7 +6720,7 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>444</v>
@@ -6743,7 +6743,7 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>445</v>
@@ -8008,7 +8008,7 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>478</v>
@@ -8425,7 +8425,7 @@
         <v>555</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
@@ -8448,7 +8448,7 @@
         <v>556</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>557</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>558</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
@@ -8517,7 +8517,7 @@
         <v>559</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>560</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
@@ -8563,7 +8563,7 @@
         <v>561</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
@@ -8586,7 +8586,7 @@
         <v>562</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>563</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>564</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
@@ -8655,7 +8655,7 @@
         <v>565</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>566</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
@@ -8701,7 +8701,7 @@
         <v>567</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>568</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
@@ -8747,7 +8747,7 @@
         <v>569</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
@@ -8770,7 +8770,7 @@
         <v>570</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
@@ -8793,7 +8793,7 @@
         <v>571</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
@@ -8816,7 +8816,7 @@
         <v>572</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
@@ -8839,7 +8839,7 @@
         <v>573</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
@@ -8862,7 +8862,7 @@
         <v>574</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
@@ -8885,7 +8885,7 @@
         <v>575</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>576</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
@@ -8931,7 +8931,7 @@
         <v>577</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
@@ -8954,7 +8954,7 @@
         <v>578</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
@@ -8977,7 +8977,7 @@
         <v>579</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
@@ -9000,7 +9000,7 @@
         <v>580</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>581</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>582</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
@@ -9069,7 +9069,7 @@
         <v>583</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>584</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>585</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
@@ -9138,7 +9138,7 @@
         <v>586</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
@@ -9161,7 +9161,7 @@
         <v>587</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>588</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
@@ -9207,7 +9207,7 @@
         <v>589</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>590</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
@@ -9529,13 +9529,13 @@
         <v>766</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D267" s="5">
         <v>1</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>768</v>
+        <v>817</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
@@ -9552,13 +9552,13 @@
         <v>767</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
@@ -9572,16 +9572,16 @@
         <v>367</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046FF27-D4AF-DF4B-B7D5-F707E78FB17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC147ED-4B86-0D41-92EE-BB34D1B732D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3384,7 +3384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC147ED-4B86-0D41-92EE-BB34D1B732D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7975894-9280-8942-9DEC-2DA8C806519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3383,8 +3383,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0E23C-61E8-9641-9F47-1DEC81D2D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951ED47-8630-0E4F-A4D2-66D77242DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="821">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2961,6 +2961,12 @@
   </si>
   <si>
     <t>(LINT&lt;0)&amp;(LCHR&lt;0)</t>
+  </si>
+  <si>
+    <t>探索欲</t>
+  </si>
+  <si>
+    <t>勇于探索</t>
   </si>
 </sst>
 </file>
@@ -3383,8 +3389,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E173" sqref="E173"/>
+      <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -9590,6 +9596,26 @@
         <v>699</v>
       </c>
     </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="5">
+        <v>368</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D270" s="5">
+        <v>3</v>
+      </c>
+      <c r="F270" s="5">
+        <v>0</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
     <row r="280" spans="5:5">
       <c r="E280" s="5"/>
     </row>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E9A5D-C806-314A-BD11-12DCE86F81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04211451-74EB-064A-84E3-7AE58F7E6FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="832">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2630,9 +2630,6 @@
     <t>EVT?[50554]</t>
   </si>
   <si>
-    <t>EVT?[50481]</t>
-  </si>
-  <si>
     <t>EVT?[99902]</t>
   </si>
   <si>
@@ -2979,6 +2976,30 @@
   </si>
   <si>
     <t>TMS&gt;114513</t>
+  </si>
+  <si>
+    <t>(EVT?[50481,60481])&amp;(EVT[50482])</t>
+  </si>
+  <si>
+    <t>(EVT?[50099])&amp;(EVT![50099])</t>
+  </si>
+  <si>
+    <t>这辈子神了</t>
+  </si>
+  <si>
+    <t>这辈子拉了</t>
+  </si>
+  <si>
+    <t>全属性&gt;10</t>
+  </si>
+  <si>
+    <t>全属性&lt;0</t>
+  </si>
+  <si>
+    <t>(LINT&lt;0)&amp;(LCHR&lt;0)&amp;(LSTR&lt;0)&amp;(LSPR&lt;0)&amp;(LMNY&lt;0)</t>
+  </si>
+  <si>
+    <t>(HCHR&gt;10)&amp;(HSTR&gt;10)&amp;(HSPR&gt;10)&amp;(HINT&gt;10)&amp;(HMNY&gt;10)</t>
   </si>
 </sst>
 </file>
@@ -3401,8 +3422,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -5634,7 +5655,7 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>433</v>
@@ -5956,16 +5977,16 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -6347,7 +6368,7 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>274</v>
@@ -6738,7 +6759,7 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>444</v>
@@ -6761,7 +6782,7 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>445</v>
@@ -6977,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>708</v>
+        <v>824</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -7000,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
@@ -7023,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
@@ -7046,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
@@ -7060,7 +7081,7 @@
         <v>257</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>399</v>
@@ -7069,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
@@ -7092,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
@@ -7109,13 +7130,13 @@
         <v>352</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
@@ -7138,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
@@ -7161,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
@@ -7184,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -7207,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
@@ -7230,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
@@ -7253,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
@@ -7276,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -7322,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -7345,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -7368,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
@@ -7391,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
@@ -7414,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
@@ -7437,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
@@ -7460,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -7483,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
@@ -7506,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
@@ -7529,7 +7550,7 @@
         <v>3</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
@@ -7552,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -7575,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
@@ -7598,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>661</v>
+        <v>825</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
@@ -7621,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
@@ -8026,7 +8047,7 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>478</v>
@@ -8035,13 +8056,13 @@
         <v>2</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8058,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8081,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
@@ -8104,13 +8125,13 @@
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8127,13 +8148,13 @@
         <v>3</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8150,13 +8171,13 @@
         <v>3</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8173,13 +8194,13 @@
         <v>3</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8196,7 +8217,7 @@
         <v>3</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
@@ -8219,7 +8240,7 @@
         <v>3</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
@@ -8242,13 +8263,13 @@
         <v>3</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8265,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -8288,13 +8309,13 @@
         <v>3</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8311,13 +8332,13 @@
         <v>3</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8334,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F214" s="5">
         <v>1</v>
@@ -8357,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F215" s="5">
         <v>1</v>
@@ -8380,13 +8401,13 @@
         <v>1</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F216" s="11">
         <v>0</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8403,13 +8424,13 @@
         <v>1</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F217" s="11">
         <v>0</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8426,13 +8447,13 @@
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F218" s="11">
         <v>0</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="23">
@@ -8443,7 +8464,7 @@
         <v>555</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
@@ -8455,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="23">
@@ -8466,7 +8487,7 @@
         <v>556</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
@@ -8478,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="23">
@@ -8489,7 +8510,7 @@
         <v>557</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -8501,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="23">
@@ -8512,7 +8533,7 @@
         <v>558</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
@@ -8524,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="23">
@@ -8535,7 +8556,7 @@
         <v>559</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
@@ -8547,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="23">
@@ -8558,7 +8579,7 @@
         <v>560</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
@@ -8570,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="23">
@@ -8581,7 +8602,7 @@
         <v>561</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
@@ -8593,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="23">
@@ -8604,7 +8625,7 @@
         <v>562</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
@@ -8616,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="23">
@@ -8627,7 +8648,7 @@
         <v>563</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
@@ -8639,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="23">
@@ -8650,7 +8671,7 @@
         <v>564</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
@@ -8662,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="23">
@@ -8673,7 +8694,7 @@
         <v>565</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
@@ -8685,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="23">
@@ -8696,7 +8717,7 @@
         <v>566</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
@@ -8708,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="23">
@@ -8719,7 +8740,7 @@
         <v>567</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
@@ -8731,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="23">
@@ -8742,7 +8763,7 @@
         <v>568</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
@@ -8754,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="23">
@@ -8765,7 +8786,7 @@
         <v>569</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
@@ -8777,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="23">
@@ -8788,7 +8809,7 @@
         <v>570</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
@@ -8800,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="23">
@@ -8811,7 +8832,7 @@
         <v>571</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
@@ -8823,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="23">
@@ -8834,7 +8855,7 @@
         <v>572</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
@@ -8846,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="23">
@@ -8857,7 +8878,7 @@
         <v>573</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
@@ -8869,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="23">
@@ -8880,7 +8901,7 @@
         <v>574</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
@@ -8892,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="23">
@@ -8903,7 +8924,7 @@
         <v>575</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
@@ -8915,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="23">
@@ -8926,7 +8947,7 @@
         <v>576</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
@@ -8938,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="23">
@@ -8949,7 +8970,7 @@
         <v>577</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
@@ -8961,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="23">
@@ -8972,7 +8993,7 @@
         <v>578</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
@@ -8984,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="23">
@@ -8995,7 +9016,7 @@
         <v>579</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
@@ -9007,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="23">
@@ -9018,7 +9039,7 @@
         <v>580</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
@@ -9030,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="23">
@@ -9041,7 +9062,7 @@
         <v>581</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
@@ -9053,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="23">
@@ -9064,7 +9085,7 @@
         <v>582</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
@@ -9076,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="23">
@@ -9087,7 +9108,7 @@
         <v>583</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
@@ -9099,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23">
@@ -9110,7 +9131,7 @@
         <v>584</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
@@ -9122,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23">
@@ -9133,7 +9154,7 @@
         <v>585</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
@@ -9145,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23">
@@ -9156,7 +9177,7 @@
         <v>586</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
@@ -9168,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23">
@@ -9179,7 +9200,7 @@
         <v>587</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
@@ -9191,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23">
@@ -9202,7 +9223,7 @@
         <v>588</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
@@ -9214,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23">
@@ -9225,7 +9246,7 @@
         <v>589</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
@@ -9237,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23">
@@ -9248,7 +9269,7 @@
         <v>590</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
@@ -9260,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9277,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
@@ -9300,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
@@ -9329,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9346,13 +9367,13 @@
         <v>3</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9369,13 +9390,13 @@
         <v>3</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F259" s="5">
         <v>0</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9398,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9421,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -9429,16 +9450,16 @@
         <v>360</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="D262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>764</v>
-      </c>
-      <c r="D262" s="5">
-        <v>1</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>765</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -9461,7 +9482,7 @@
         <v>3</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F263" s="5">
         <v>1</v>
@@ -9507,7 +9528,7 @@
         <v>3</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F265" s="5">
         <v>1</v>
@@ -9530,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F266" s="5">
         <v>1</v>
@@ -9544,16 +9565,16 @@
         <v>365</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D267" s="5">
         <v>1</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
@@ -9567,16 +9588,16 @@
         <v>366</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
@@ -9590,16 +9611,16 @@
         <v>367</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>769</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
@@ -9613,16 +9634,16 @@
         <v>368</v>
       </c>
       <c r="B270" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="D270" s="5">
+        <v>4</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="D270" s="5">
-        <v>3</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
@@ -9636,16 +9657,16 @@
         <v>369</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="D271" s="5">
+        <v>4</v>
+      </c>
+      <c r="E271" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="D271" s="5">
-        <v>2</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="F271" s="5">
         <v>0</v>
@@ -9654,13 +9675,59 @@
         <v>699</v>
       </c>
     </row>
-    <row r="280" spans="5:5">
+    <row r="272" spans="1:7">
+      <c r="A272" s="5">
+        <v>370</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D272" s="5">
+        <v>2</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F272" s="5">
+        <v>0</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="5">
+        <v>371</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="D273" s="5">
+        <v>2</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="F273" s="5">
+        <v>0</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="5:5">
+    <row r="281" spans="1:7">
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="5:5">
+    <row r="282" spans="1:7">
       <c r="E282" s="5"/>
     </row>
   </sheetData>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF8B2BD-57F8-4249-BA74-1342B52EAB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6902FF5E-7287-0C4C-AD17-009B972FC1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1799,9 +1799,6 @@
     <t>是的，我回来了</t>
   </si>
   <si>
-    <t>见状新L公司</t>
-  </si>
-  <si>
     <t>上岸</t>
   </si>
   <si>
@@ -3018,6 +3015,9 @@
   </si>
   <si>
     <t>(TLT?[3042])&amp;(TLT?[3043])&amp;(TLT?[1129])</t>
+  </si>
+  <si>
+    <t>见证新L公司</t>
   </si>
 </sst>
 </file>
@@ -3440,8 +3440,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
+      <pane ySplit="2" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -3516,7 +3516,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -3562,7 +3562,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -3608,7 +3608,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>387</v>
@@ -3769,7 +3769,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>322</v>
@@ -3838,7 +3838,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -3887,13 +3887,13 @@
         <v>332</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -3930,16 +3930,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -3953,16 +3953,16 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>45</v>
@@ -4275,7 +4275,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>343</v>
@@ -4459,7 +4459,7 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="5">
@@ -4644,7 +4644,7 @@
         <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>350</v>
@@ -5466,7 +5466,7 @@
         <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>173</v>
@@ -5653,7 +5653,7 @@
         <v>430</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>431</v>
+        <v>837</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
@@ -5995,22 +5995,22 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="39.5" customHeight="1">
@@ -6386,7 +6386,7 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>274</v>
@@ -6619,13 +6619,13 @@
         <v>354</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
@@ -6642,13 +6642,13 @@
         <v>355</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F139" s="5">
         <v>1</v>
@@ -6665,13 +6665,13 @@
         <v>356</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F140" s="5">
         <v>1</v>
@@ -6688,13 +6688,13 @@
         <v>357</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D141" s="5">
         <v>1</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
@@ -6711,13 +6711,13 @@
         <v>358</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D142" s="5">
         <v>2</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -6734,13 +6734,13 @@
         <v>359</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F143" s="5">
         <v>1</v>
@@ -6757,13 +6757,13 @@
         <v>360</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D144" s="5">
         <v>2</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F144" s="5">
         <v>1</v>
@@ -6777,16 +6777,16 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D145" s="5">
         <v>3</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F145" s="5">
         <v>1</v>
@@ -6800,16 +6800,16 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D146" s="5">
         <v>3</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -6823,16 +6823,16 @@
         <v>245</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F147" s="5">
         <v>1</v>
@@ -6846,16 +6846,16 @@
         <v>246</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F148" s="5">
         <v>1</v>
@@ -6869,16 +6869,16 @@
         <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
@@ -6895,13 +6895,13 @@
         <v>361</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
@@ -6924,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F153" s="5">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
@@ -7010,13 +7010,13 @@
         <v>367</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D155" s="5">
         <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>257</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>399</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
@@ -7131,13 +7131,13 @@
         <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7148,19 +7148,19 @@
         <v>352</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7168,22 +7168,22 @@
         <v>260</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D162" s="5">
         <v>2</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7194,13 +7194,13 @@
         <v>413</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
@@ -7217,13 +7217,13 @@
         <v>403</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D164" s="5">
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
@@ -7269,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7292,13 +7292,13 @@
         <v>1</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7306,7 +7306,7 @@
         <v>266</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>410</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>267</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="D169" s="5">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="D169" s="5">
-        <v>1</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="F169" s="5">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>268</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>411</v>
@@ -7361,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -7375,16 +7375,16 @@
         <v>269</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="D171" s="5">
         <v>1</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -7398,7 +7398,7 @@
         <v>270</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>412</v>
@@ -7407,13 +7407,13 @@
         <v>3</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7421,22 +7421,22 @@
         <v>271</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D173" s="5">
         <v>2</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7447,19 +7447,19 @@
         <v>419</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D174" s="5">
         <v>3</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7476,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -7522,13 +7522,13 @@
         <v>2</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7536,22 +7536,22 @@
         <v>276</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="D178" s="5">
         <v>3</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7559,22 +7559,22 @@
         <v>277</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D179" s="5">
         <v>3</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7582,7 +7582,7 @@
         <v>278</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>397</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -7605,22 +7605,22 @@
         <v>279</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D181" s="5">
         <v>0</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7628,22 +7628,22 @@
         <v>280</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D182" s="5">
         <v>3</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7651,16 +7651,16 @@
         <v>281</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
@@ -7674,22 +7674,22 @@
         <v>282</v>
       </c>
       <c r="B184" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="D184" s="5">
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F184" s="5">
         <v>1</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23">
@@ -7697,22 +7697,22 @@
         <v>283</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D185" s="5">
         <v>4</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F185" s="5">
         <v>1</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23">
@@ -7720,22 +7720,22 @@
         <v>284</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D186" s="5">
         <v>4</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F186" s="5">
         <v>1</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23">
@@ -7743,22 +7743,22 @@
         <v>285</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D187" s="5">
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F187" s="5">
         <v>1</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23">
@@ -7766,22 +7766,22 @@
         <v>286</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D188" s="5">
         <v>4</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F188" s="5">
         <v>1</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23">
@@ -7789,22 +7789,22 @@
         <v>287</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D189" s="5">
         <v>4</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F189" s="5">
         <v>1</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23">
@@ -7812,22 +7812,22 @@
         <v>288</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D190" s="5">
         <v>4</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23">
@@ -7835,22 +7835,22 @@
         <v>289</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D191" s="5">
         <v>4</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23">
@@ -7858,22 +7858,22 @@
         <v>290</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D192" s="5">
         <v>4</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F192" s="5">
         <v>1</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="23">
@@ -7881,22 +7881,22 @@
         <v>291</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D193" s="5">
         <v>4</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F193" s="5">
         <v>1</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="23">
@@ -7904,22 +7904,22 @@
         <v>292</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D194" s="5">
         <v>4</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F194" s="5">
         <v>1</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="23">
@@ -7927,22 +7927,22 @@
         <v>293</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D195" s="5">
         <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="23">
@@ -7950,22 +7950,22 @@
         <v>294</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D196" s="5">
         <v>4</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F196" s="5">
         <v>1</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="23">
@@ -7973,22 +7973,22 @@
         <v>295</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D197" s="5">
         <v>4</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F197" s="5">
         <v>1</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="23">
@@ -7996,22 +7996,22 @@
         <v>296</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D198" s="5">
         <v>4</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F198" s="5">
         <v>1</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="23">
@@ -8019,22 +8019,22 @@
         <v>297</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D199" s="5">
         <v>4</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="23">
@@ -8042,22 +8042,22 @@
         <v>298</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D200" s="5">
         <v>4</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F200" s="5">
         <v>1</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8065,22 +8065,22 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D201" s="5">
         <v>2</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8088,22 +8088,22 @@
         <v>300</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8111,22 +8111,22 @@
         <v>301</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D203" s="5">
         <v>2</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8134,22 +8134,22 @@
         <v>302</v>
       </c>
       <c r="B204" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="D204" s="5">
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8157,22 +8157,22 @@
         <v>303</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="D205" s="5">
         <v>3</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8180,22 +8180,22 @@
         <v>304</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D206" s="5">
         <v>3</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8203,22 +8203,22 @@
         <v>305</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D207" s="5">
         <v>3</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8226,22 +8226,22 @@
         <v>306</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D208" s="5">
         <v>3</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8249,22 +8249,22 @@
         <v>307</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D209" s="5">
         <v>3</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8272,22 +8272,22 @@
         <v>308</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D210" s="5">
         <v>3</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8295,22 +8295,22 @@
         <v>309</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D211" s="5">
         <v>3</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8318,22 +8318,22 @@
         <v>310</v>
       </c>
       <c r="B212" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="D212" s="5">
         <v>3</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8341,22 +8341,22 @@
         <v>311</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="D213" s="5">
         <v>3</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8364,22 +8364,22 @@
         <v>312</v>
       </c>
       <c r="B214" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>601</v>
-      </c>
       <c r="D214" s="5">
         <v>1</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F214" s="5">
         <v>1</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8387,22 +8387,22 @@
         <v>313</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="D215" s="5">
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F215" s="5">
         <v>1</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8410,22 +8410,22 @@
         <v>314</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>603</v>
-      </c>
       <c r="D216" s="5">
         <v>1</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F216" s="11">
         <v>0</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8433,22 +8433,22 @@
         <v>315</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D217" s="5">
         <v>1</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F217" s="11">
         <v>0</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8456,22 +8456,22 @@
         <v>316</v>
       </c>
       <c r="B218" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="D218" s="5">
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F218" s="11">
         <v>0</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="23">
@@ -8479,22 +8479,22 @@
         <v>317</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F219" s="5">
         <v>0</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="23">
@@ -8502,22 +8502,22 @@
         <v>318</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F220" s="5">
         <v>0</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="23">
@@ -8525,22 +8525,22 @@
         <v>319</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="23">
@@ -8548,22 +8548,22 @@
         <v>320</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="23">
@@ -8571,22 +8571,22 @@
         <v>321</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="23">
@@ -8594,22 +8594,22 @@
         <v>322</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="23">
@@ -8617,22 +8617,22 @@
         <v>323</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="23">
@@ -8640,22 +8640,22 @@
         <v>324</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="23">
@@ -8663,22 +8663,22 @@
         <v>325</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="23">
@@ -8686,22 +8686,22 @@
         <v>326</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="23">
@@ -8709,22 +8709,22 @@
         <v>327</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F229" s="5">
         <v>0</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="23">
@@ -8732,22 +8732,22 @@
         <v>328</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F230" s="5">
         <v>0</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="23">
@@ -8755,22 +8755,22 @@
         <v>329</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="23">
@@ -8778,22 +8778,22 @@
         <v>330</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="23">
@@ -8801,22 +8801,22 @@
         <v>331</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F233" s="5">
         <v>0</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="23">
@@ -8824,22 +8824,22 @@
         <v>332</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="23">
@@ -8847,22 +8847,22 @@
         <v>333</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="23">
@@ -8870,22 +8870,22 @@
         <v>334</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="23">
@@ -8893,22 +8893,22 @@
         <v>335</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="23">
@@ -8916,22 +8916,22 @@
         <v>336</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F238" s="5">
         <v>0</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="23">
@@ -8939,22 +8939,22 @@
         <v>337</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="23">
@@ -8962,22 +8962,22 @@
         <v>338</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F240" s="5">
         <v>0</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="23">
@@ -8985,22 +8985,22 @@
         <v>339</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="23">
@@ -9008,22 +9008,22 @@
         <v>340</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="23">
@@ -9031,22 +9031,22 @@
         <v>341</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="23">
@@ -9054,22 +9054,22 @@
         <v>342</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F244" s="5">
         <v>0</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="23">
@@ -9077,22 +9077,22 @@
         <v>343</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="23">
@@ -9100,22 +9100,22 @@
         <v>344</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F246" s="5">
         <v>0</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="23">
@@ -9123,22 +9123,22 @@
         <v>345</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F247" s="5">
         <v>0</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23">
@@ -9146,22 +9146,22 @@
         <v>346</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F248" s="5">
         <v>0</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23">
@@ -9169,22 +9169,22 @@
         <v>347</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F249" s="5">
         <v>0</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23">
@@ -9192,22 +9192,22 @@
         <v>348</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F250" s="5">
         <v>0</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23">
@@ -9215,22 +9215,22 @@
         <v>349</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23">
@@ -9238,22 +9238,22 @@
         <v>350</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F252" s="5">
         <v>0</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23">
@@ -9261,22 +9261,22 @@
         <v>351</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23">
@@ -9284,22 +9284,22 @@
         <v>352</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F254" s="5">
         <v>0</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9307,22 +9307,22 @@
         <v>353</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="D255" s="5">
         <v>2</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9330,22 +9330,22 @@
         <v>354</v>
       </c>
       <c r="B256" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>597</v>
-      </c>
       <c r="D256" s="5">
         <v>1</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -9353,22 +9353,22 @@
         <v>355</v>
       </c>
       <c r="B257" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="D257" s="5">
         <v>3</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F257" s="5">
         <v>1</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9376,22 +9376,22 @@
         <v>356</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="D258" s="5">
         <v>3</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9399,22 +9399,22 @@
         <v>357</v>
       </c>
       <c r="B259" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="D259" s="5">
         <v>3</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F259" s="5">
         <v>0</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9422,22 +9422,22 @@
         <v>358</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D260" s="5">
         <v>3</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9445,22 +9445,22 @@
         <v>359</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D261" s="5">
         <v>3</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F261" s="5">
         <v>1</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -9468,16 +9468,16 @@
         <v>360</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="D262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="D262" s="5">
-        <v>1</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>764</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -9491,22 +9491,22 @@
         <v>361</v>
       </c>
       <c r="B263" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="D263" s="5">
         <v>3</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F263" s="5">
         <v>1</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -9514,22 +9514,22 @@
         <v>362</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D264" s="5">
         <v>2</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F264" s="5">
         <v>1</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -9537,22 +9537,22 @@
         <v>363</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D265" s="5">
         <v>3</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F265" s="5">
         <v>1</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -9560,22 +9560,22 @@
         <v>364</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D266" s="5">
         <v>4</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F266" s="5">
         <v>1</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -9583,22 +9583,22 @@
         <v>365</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D267" s="5">
         <v>1</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -9606,22 +9606,22 @@
         <v>366</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -9629,22 +9629,22 @@
         <v>367</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -9652,22 +9652,22 @@
         <v>368</v>
       </c>
       <c r="B270" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="D270" s="5">
         <v>4</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -9675,22 +9675,22 @@
         <v>369</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>821</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>822</v>
       </c>
       <c r="D271" s="5">
         <v>4</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F271" s="5">
         <v>0</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -9698,22 +9698,22 @@
         <v>370</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D272" s="5">
         <v>2</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F272" s="5">
         <v>0</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -9721,22 +9721,22 @@
         <v>371</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D273" s="5">
         <v>2</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F273" s="5">
         <v>0</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -9744,22 +9744,22 @@
         <v>372</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1</v>
+      </c>
+      <c r="E274" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>833</v>
-      </c>
       <c r="F274" s="5">
         <v>0</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -9767,22 +9767,22 @@
         <v>373</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>835</v>
-      </c>
       <c r="D275" s="5">
         <v>1</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F275" s="5">
         <v>0</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="280" spans="1:7">

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611FCAA8-09AB-7545-A70E-155B5030D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E50CF6-6857-0544-AB34-D84EB0DEB0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3441,7 +3441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
+      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E50CF6-6857-0544-AB34-D84EB0DEB0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B224C-FD04-0940-94DC-75190A4133E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2786,9 +2786,6 @@
     <t>EVT?[60842]</t>
   </si>
   <si>
-    <t>(AEVT?[70001])&amp;(AEVT?[70002])&amp;(AEVT?[70003])&amp;(AEVT?[70004])&amp;(AEVT?[70005])&amp;(AEVT?[70006])&amp;(AEVT?[70007])&amp;(AEVT?[70008])&amp;(AEVT?[70009])&amp;(AEVT?[70010])&amp;(AEVT?[70012])&amp;(AEVT?[70013])&amp;(AEVT?[70015])&amp;(AEVT?[70016])&amp;(AEVT?[70017])&amp;(AEVT?[70018])&amp;(AEVT?[70019])&amp;(AEVT?[70020])&amp;(AEVT?[70021])</t>
-  </si>
-  <si>
     <t>读错书了</t>
   </si>
   <si>
@@ -3018,6 +3015,9 @@
   </si>
   <si>
     <t>见证新L公司</t>
+  </si>
+  <si>
+    <t>(AEVT?[70001])&amp;(AEVT?[70002])&amp;(AEVT?[70003])&amp;(AEVT?[70004])&amp;(AEVT?[70005])&amp;(AEVT?[70006])&amp;(AEVT?[70007])&amp;(AEVT?[70008])&amp;(AEVT?[70009])&amp;(AEVT?[70010])&amp;(AEVT?[70012])&amp;(AEVT?[70015])&amp;(AEVT?[70016])&amp;(AEVT?[70017])&amp;(AEVT?[70018])&amp;(AEVT?[70019])&amp;(AEVT?[70020])</t>
   </si>
 </sst>
 </file>
@@ -3440,8 +3440,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -5653,7 +5653,7 @@
         <v>430</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>432</v>
@@ -5995,16 +5995,16 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>782</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>274</v>
@@ -6777,7 +6777,7 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>443</v>
@@ -6800,7 +6800,7 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>444</v>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
@@ -8065,7 +8065,7 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>477</v>
@@ -8304,7 +8304,7 @@
         <v>3</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>554</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
@@ -8505,7 +8505,7 @@
         <v>555</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>556</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -8551,7 +8551,7 @@
         <v>557</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
@@ -8574,7 +8574,7 @@
         <v>558</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
@@ -8597,7 +8597,7 @@
         <v>559</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
@@ -8620,7 +8620,7 @@
         <v>560</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>561</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
@@ -8666,7 +8666,7 @@
         <v>562</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
@@ -8689,7 +8689,7 @@
         <v>563</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>564</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
@@ -8735,7 +8735,7 @@
         <v>565</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>566</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
@@ -8781,7 +8781,7 @@
         <v>567</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
@@ -8804,7 +8804,7 @@
         <v>568</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
@@ -8827,7 +8827,7 @@
         <v>569</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
@@ -8850,7 +8850,7 @@
         <v>570</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
@@ -8873,7 +8873,7 @@
         <v>571</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>572</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
@@ -8919,7 +8919,7 @@
         <v>573</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
@@ -8942,7 +8942,7 @@
         <v>574</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
@@ -8965,7 +8965,7 @@
         <v>575</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>576</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
@@ -9011,7 +9011,7 @@
         <v>577</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
@@ -9034,7 +9034,7 @@
         <v>578</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
@@ -9057,7 +9057,7 @@
         <v>579</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>580</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>581</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
@@ -9126,7 +9126,7 @@
         <v>582</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
@@ -9149,7 +9149,7 @@
         <v>583</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>584</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
@@ -9195,7 +9195,7 @@
         <v>585</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>586</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
@@ -9241,7 +9241,7 @@
         <v>587</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>588</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>589</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
@@ -9468,16 +9468,16 @@
         <v>360</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="D262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="D262" s="5">
-        <v>1</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -9583,16 +9583,16 @@
         <v>365</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D267" s="5">
         <v>1</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
@@ -9606,16 +9606,16 @@
         <v>366</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
@@ -9629,16 +9629,16 @@
         <v>367</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>368</v>
       </c>
       <c r="B270" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>818</v>
       </c>
       <c r="D270" s="5">
         <v>4</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
@@ -9675,16 +9675,16 @@
         <v>369</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="D271" s="5">
         <v>4</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F271" s="5">
         <v>0</v>
@@ -9698,16 +9698,16 @@
         <v>370</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D272" s="5">
         <v>2</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F272" s="5">
         <v>0</v>
@@ -9721,16 +9721,16 @@
         <v>371</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D273" s="5">
         <v>2</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F273" s="5">
         <v>0</v>
@@ -9744,16 +9744,16 @@
         <v>372</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1</v>
+      </c>
+      <c r="E274" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="F274" s="5">
         <v>0</v>
@@ -9767,16 +9767,16 @@
         <v>373</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>834</v>
-      </c>
       <c r="D275" s="5">
         <v>1</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F275" s="5">
         <v>0</v>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B224C-FD04-0940-94DC-75190A4133E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1C3E8-9E7D-5540-A36F-0DAD0285A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="839">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3018,6 +3018,9 @@
   </si>
   <si>
     <t>(AEVT?[70001])&amp;(AEVT?[70002])&amp;(AEVT?[70003])&amp;(AEVT?[70004])&amp;(AEVT?[70005])&amp;(AEVT?[70006])&amp;(AEVT?[70007])&amp;(AEVT?[70008])&amp;(AEVT?[70009])&amp;(AEVT?[70010])&amp;(AEVT?[70012])&amp;(AEVT?[70015])&amp;(AEVT?[70016])&amp;(AEVT?[70017])&amp;(AEVT?[70018])&amp;(AEVT?[70019])&amp;(AEVT?[70020])</t>
+  </si>
+  <si>
+    <t>EVT?[90345]</t>
   </si>
 </sst>
 </file>
@@ -3439,9 +3442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -6901,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>693</v>
+        <v>838</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1C3E8-9E7D-5540-A36F-0DAD0285A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D58A4F-F8ED-5F45-B523-4A62531BFA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
+      <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D58A4F-F8ED-5F45-B523-4A62531BFA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF69A1A-82CA-A24D-B8DD-B7E4546BBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3444,7 +3444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
